--- a/medicine/Œil et vue/Braille_Without_Borders/Braille_Without_Borders.xlsx
+++ b/medicine/Œil et vue/Braille_Without_Borders/Braille_Without_Borders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Braille Without Border, en allemand Braille Ohne Grenzen, est une organisation non gouvernementale internationale pour les malvoyants des pays en développement. Elle a été fondée à Lhassa au Tibet par Sabriye Tenberken et son partenaire, Paul Kronenberg, en 1998.
 L'organisation était, à l'origine, appelée Project for the Blind, Tibet et fut renommée en 2002.
@@ -512,7 +524,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but de l’organisation est de donner de l’espoir et les compétences pratiques aux malvoyants et, en particulier, de leur apprendre le braille tibétain (en). Si aucun type de braille n'existe pour une langue particulière, l'organisation doit en premier lieu le développer. 
 </t>
